--- a/plots.xlsx
+++ b/plots.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16440" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1908,7 +1909,2562 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.7222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9444399999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.1666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.38888899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.38888899999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9444399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7222200000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$1:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.44763799999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.458121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7540999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0414699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.332318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46565800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95023000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90179600000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51771599999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.86013399999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A6F6-4C10-8E89-A7DFBE213107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>spline</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$F:$F</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>2.4147399999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$I:$I</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.59990600000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53573700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.471885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40850700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34576400000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.28381400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22281599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16292799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.104311</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7122200000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-8.4788199999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-6.2333300000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.11428199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.16416700000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.21182799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.25710699999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.299844</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.33988099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.37706000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.41121999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.44220300000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.46887000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.49018</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.50612100000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.51668099999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.52184900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.52161299999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.515961</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.50488299999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.48836600000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.46639799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.438969</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.40606500000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.36767699999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.32379200000000002</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.27439799999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.21948400000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.15903800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-9.3049400000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-2.1505400000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.56052E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.13486400000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.21252599999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.28811599999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36115599999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43116900000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.49768000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.56021200000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61828700000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.67142900000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71916199999999997</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76100900000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.79649300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.82513700000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.84646600000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.86000200000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.86526800000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.861788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.84908600000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82668399999999997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.79410599999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.75136800000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.69918499999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63812800000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.56876800000000005</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.49167499999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.40742099999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.31657600000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.21971199999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.117398</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.02074E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.10129000000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.21652399999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.33492300000000003</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.45591599999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.578932</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.70340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.82874999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.95440999999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0798099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A6F6-4C10-8E89-A7DFBE213107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>spline1.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$U:$U</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="0.00E+00">
+                  <c:v>2.4147399999999999E-15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$X:$X</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0.36469800000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31829099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27560699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23622899999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.199742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16572899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.133774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4376899999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6102499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8222800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.6780500000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.8015899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.7206799999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.7666600000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.12981100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.16405700000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.200819</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.24051400000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.283557</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.33036500000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.378585</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.42513299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.46933000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.51049599999999995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.54795300000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.58101999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.60901899999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.63126899999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.647092</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.65580799999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.65673800000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.64920199999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.632521</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.60601499999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.56900499999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.52081200000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.460756</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.388158</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.302338</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.20261699999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-9.7035999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5972699999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.104813</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.20014000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.29110900000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.377249</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45809100000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.53316399999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.601997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.66412099999999996</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.71906499999999995</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.76635900000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.80553300000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.83611599999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.85763900000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.86963100000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.87162200000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.86314100000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.843719</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.81288499999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.77106799999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.71940999999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.65851000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.58896700000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.51137900000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.426344</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33446199999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.23633199999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.132551</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.37197E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.9564500000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.206702</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.32709500000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.45014399999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.57525099999999996</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.70181700000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.82924299999999995</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.95692999999999995</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.0842799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A6F6-4C10-8E89-A7DFBE213107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="578654256"/>
+        <c:axId val="578649008"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>spline2</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист2!$K:$K</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="0.00E+00">
+                        <c:v>2.4147399999999999E-15</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист2!$N:$N</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0.48591899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.43526799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.38498500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.33528000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.28636600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.238451</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.191748</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.14646600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.102816</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6.1009099999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.1255400000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1.6234100000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-5.1249000000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-8.35785E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.113012</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-0.13933899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-0.16234899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.18183099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.197574</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-0.209368</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-0.217002</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-0.22169800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-0.22470599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-0.225857</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-0.22498099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-0.22191</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-0.216474</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-0.20850399999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-0.19783200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-0.18428900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-0.16770499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-0.14791099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-0.124738</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-9.8017699999999999E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-6.7580699999999994E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-3.3257799999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>5.1198700000000003E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>4.7721399999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>9.4715800000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.14627200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.20255899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.26149099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.32050499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.37905899999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.43660700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.49260700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.54651499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.59778799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.64588100000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.69025099999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.73035499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.765648</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.79558799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.81962999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.83723099999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.84784700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.85093399999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.84594999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.83234900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.809589</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.77712700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.73479700000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.68317399999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.62281699999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.554284</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.47813699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.39493499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.30523600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.20960200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.10859199999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2.7648500000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-0.107319</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>-0.22109999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>-0.33801900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>-0.45751500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>-0.57903000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>-0.70200300000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>-0.82587500000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>-0.95008599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>-1.0740799999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-A6F6-4C10-8E89-A7DFBE213107}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>spline3</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист2!$P:$P</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>-4</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>-3.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>-3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>-3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>-3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>-3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>-3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>-3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>-3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>-3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-1</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="40" formatCode="0.00E+00">
+                        <c:v>2.4147399999999999E-15</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.1000000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.2</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.3</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.4</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.6</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.7</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.9</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2.1</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2.2000000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2.2999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2.4</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2.5</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2.6</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2.7</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2.8</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>3.1</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>3.2</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>3.3</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>3.4</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>3.5</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>3.6</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>3.7</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>3.8</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>3.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист2!$S:$S</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1048576"/>
+                      <c:pt idx="0">
+                        <c:v>0.60242099999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.54302799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.48442099999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.42661500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.36962699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.31347199999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.25816699999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.20372599999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.15016699999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9.7504900000000005E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>4.5755700000000003E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-5.06472E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>-5.4940299999999997E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.103855</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.15179400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>-0.19874</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>-0.24467700000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.28959000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.33346300000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-0.37628</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>-0.41802400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>-0.45649400000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-0.489429</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-0.51672499999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-0.53827999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>-0.55398899999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>-0.56374999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>-0.56745900000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>-0.56501400000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>-0.556311</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>-0.541246</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>-0.51971800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-0.49162099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-0.45685399999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-0.41531299999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>-0.366894</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>-0.31149500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-0.24901200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-0.179342</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-0.102382</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>-1.8028200000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>6.9184200000000001E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.154339</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.23696600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.31659700000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.39276100000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.46498899999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.53281199999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.59575999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.65336300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.70515300000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.75065899999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.789412</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.82094299999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.844781</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.86045899999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.86750499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.86545000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.85382499999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.83216100000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.79998800000000003</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.75743499999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.70533000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.64425100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.57477800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.49748799999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.41296100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.321774</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.22450500000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.121735</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1.40398E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>-9.8000699999999996E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>-0.213808</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>-0.33280500000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>-0.45441100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>-0.57804999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>-0.70314100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>-0.82910799999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>-0.95537099999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>-1.08135</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000005-A6F6-4C10-8E89-A7DFBE213107}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="578654256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578649008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="578649008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="578654256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2464,24 +5020,575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2764,8 +5871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3195,6 +6302,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>0.43088500000000002</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="F15">
         <v>-2.6</v>
       </c>
@@ -3216,6 +6329,15 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-2.3333300000000001</v>
+      </c>
+      <c r="B16">
+        <v>-0.71507600000000004</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="F16">
         <v>-2.5</v>
       </c>
@@ -3236,7 +6358,16 @@
         <v>-0.598472</v>
       </c>
     </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-1.1666700000000001</v>
+      </c>
+      <c r="B17">
+        <v>-0.881436</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="F17">
         <v>-2.4</v>
       </c>
@@ -3257,7 +6388,16 @@
         <v>-0.67186400000000002</v>
       </c>
     </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>4.4408900000000002E-16</v>
+      </c>
+      <c r="B18">
+        <v>0.38009100000000001</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="F18">
         <v>-2.2999999999999998</v>
       </c>
@@ -3278,7 +6418,16 @@
         <v>-0.73946800000000001</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.1666700000000001</v>
+      </c>
+      <c r="B19">
+        <v>0.94393400000000005</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="F19">
         <v>-2.2000000000000002</v>
       </c>
@@ -3299,7 +6448,16 @@
         <v>-0.80138500000000001</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2.3333300000000001</v>
+      </c>
+      <c r="B20">
+        <v>0.96797800000000001</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>-2.1</v>
       </c>
@@ -3320,7 +6478,16 @@
         <v>-0.85771699999999995</v>
       </c>
     </row>
-    <row r="21" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3.5</v>
+      </c>
+      <c r="B21">
+        <v>-1.02441</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="F21">
         <v>-2</v>
       </c>
@@ -3341,7 +6508,7 @@
         <v>-0.90856599999999998</v>
       </c>
     </row>
-    <row r="22" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>-1.9</v>
       </c>
@@ -3362,7 +6529,7 @@
         <v>-0.95041399999999998</v>
       </c>
     </row>
-    <row r="23" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>-1.8</v>
       </c>
@@ -3383,7 +6550,7 @@
         <v>-0.98001199999999999</v>
       </c>
     </row>
-    <row r="24" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>-1.7</v>
       </c>
@@ -3404,7 +6571,7 @@
         <v>-0.99787300000000001</v>
       </c>
     </row>
-    <row r="25" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>-1.6</v>
       </c>
@@ -3425,7 +6592,7 @@
         <v>-1.0044999999999999</v>
       </c>
     </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>-1.5</v>
       </c>
@@ -3446,7 +6613,7 @@
         <v>-1.0004200000000001</v>
       </c>
     </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>-1.4</v>
       </c>
@@ -3467,7 +6634,7 @@
         <v>-0.98612599999999995</v>
       </c>
     </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>-1.3</v>
       </c>
@@ -3488,7 +6655,7 @@
         <v>-0.96213599999999999</v>
       </c>
     </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F29">
         <v>-1.2</v>
       </c>
@@ -3509,7 +6676,7 @@
         <v>-0.92895899999999998</v>
       </c>
     </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F30">
         <v>-1.1000000000000001</v>
       </c>
@@ -3530,7 +6697,7 @@
         <v>-0.88710500000000003</v>
       </c>
     </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F31">
         <v>-1</v>
       </c>
@@ -3551,7 +6718,7 @@
         <v>-0.83708499999999997</v>
       </c>
     </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F32">
         <v>-0.9</v>
       </c>
@@ -4578,6 +7745,2192 @@
       </c>
       <c r="N80">
         <v>-1.0938300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:X80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:X80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>-3.5</v>
+      </c>
+      <c r="B1">
+        <v>0.44763799999999998</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>-4</v>
+      </c>
+      <c r="I1">
+        <v>0.59990600000000005</v>
+      </c>
+      <c r="K1">
+        <v>-4</v>
+      </c>
+      <c r="N1">
+        <v>0.48591899999999999</v>
+      </c>
+      <c r="P1">
+        <v>-4</v>
+      </c>
+      <c r="S1">
+        <v>0.60242099999999998</v>
+      </c>
+      <c r="U1">
+        <v>-4</v>
+      </c>
+      <c r="X1">
+        <v>0.36469800000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-2.7222200000000001</v>
+      </c>
+      <c r="B2">
+        <v>-0.458121</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-3.9</v>
+      </c>
+      <c r="I2">
+        <v>0.53573700000000002</v>
+      </c>
+      <c r="K2">
+        <v>-3.9</v>
+      </c>
+      <c r="N2">
+        <v>0.43526799999999999</v>
+      </c>
+      <c r="P2">
+        <v>-3.9</v>
+      </c>
+      <c r="S2">
+        <v>0.54302799999999996</v>
+      </c>
+      <c r="U2">
+        <v>-3.9</v>
+      </c>
+      <c r="X2">
+        <v>0.31829099999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-1.9444399999999999</v>
+      </c>
+      <c r="B3">
+        <v>3.7540999999999998E-2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>-3.8</v>
+      </c>
+      <c r="I3">
+        <v>0.471885</v>
+      </c>
+      <c r="K3">
+        <v>-3.8</v>
+      </c>
+      <c r="N3">
+        <v>0.38498500000000002</v>
+      </c>
+      <c r="P3">
+        <v>-3.8</v>
+      </c>
+      <c r="S3">
+        <v>0.48442099999999999</v>
+      </c>
+      <c r="U3">
+        <v>-3.8</v>
+      </c>
+      <c r="X3">
+        <v>0.27560699999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-1.1666700000000001</v>
+      </c>
+      <c r="B4">
+        <v>-1.0414699999999999</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>-3.7</v>
+      </c>
+      <c r="I4">
+        <v>0.40850700000000001</v>
+      </c>
+      <c r="K4">
+        <v>-3.7</v>
+      </c>
+      <c r="N4">
+        <v>0.33528000000000002</v>
+      </c>
+      <c r="P4">
+        <v>-3.7</v>
+      </c>
+      <c r="S4">
+        <v>0.42661500000000002</v>
+      </c>
+      <c r="U4">
+        <v>-3.7</v>
+      </c>
+      <c r="X4">
+        <v>0.23622899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.38888899999999998</v>
+      </c>
+      <c r="B5">
+        <v>-0.332318</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>-3.6</v>
+      </c>
+      <c r="I5">
+        <v>0.34576400000000002</v>
+      </c>
+      <c r="K5">
+        <v>-3.6</v>
+      </c>
+      <c r="N5">
+        <v>0.28636600000000001</v>
+      </c>
+      <c r="P5">
+        <v>-3.6</v>
+      </c>
+      <c r="S5">
+        <v>0.36962699999999998</v>
+      </c>
+      <c r="U5">
+        <v>-3.6</v>
+      </c>
+      <c r="X5">
+        <v>0.199742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.38888899999999998</v>
+      </c>
+      <c r="B6">
+        <v>0.46565800000000002</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-3.5</v>
+      </c>
+      <c r="I6">
+        <v>0.28381400000000001</v>
+      </c>
+      <c r="K6">
+        <v>-3.5</v>
+      </c>
+      <c r="N6">
+        <v>0.238451</v>
+      </c>
+      <c r="P6">
+        <v>-3.5</v>
+      </c>
+      <c r="S6">
+        <v>0.31347199999999997</v>
+      </c>
+      <c r="U6">
+        <v>-3.5</v>
+      </c>
+      <c r="X6">
+        <v>0.16572899999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1.1666700000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.95023000000000002</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-3.4</v>
+      </c>
+      <c r="I7">
+        <v>0.22281599999999999</v>
+      </c>
+      <c r="K7">
+        <v>-3.4</v>
+      </c>
+      <c r="N7">
+        <v>0.191748</v>
+      </c>
+      <c r="P7">
+        <v>-3.4</v>
+      </c>
+      <c r="S7">
+        <v>0.25816699999999998</v>
+      </c>
+      <c r="U7">
+        <v>-3.4</v>
+      </c>
+      <c r="X7">
+        <v>0.133774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1.9444399999999999</v>
+      </c>
+      <c r="B8">
+        <v>0.90179600000000004</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-3.3</v>
+      </c>
+      <c r="I8">
+        <v>0.16292799999999999</v>
+      </c>
+      <c r="K8">
+        <v>-3.3</v>
+      </c>
+      <c r="N8">
+        <v>0.14646600000000001</v>
+      </c>
+      <c r="P8">
+        <v>-3.3</v>
+      </c>
+      <c r="S8">
+        <v>0.20372599999999999</v>
+      </c>
+      <c r="U8">
+        <v>-3.3</v>
+      </c>
+      <c r="X8">
+        <v>0.103462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2.7222200000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.51771599999999995</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-3.2</v>
+      </c>
+      <c r="I9">
+        <v>0.104311</v>
+      </c>
+      <c r="K9">
+        <v>-3.2</v>
+      </c>
+      <c r="N9">
+        <v>0.102816</v>
+      </c>
+      <c r="P9">
+        <v>-3.2</v>
+      </c>
+      <c r="S9">
+        <v>0.15016699999999999</v>
+      </c>
+      <c r="U9">
+        <v>-3.2</v>
+      </c>
+      <c r="X9">
+        <v>7.4376899999999996E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3.5</v>
+      </c>
+      <c r="B10">
+        <v>-0.86013399999999995</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-3.1</v>
+      </c>
+      <c r="I10">
+        <v>4.7122200000000003E-2</v>
+      </c>
+      <c r="K10">
+        <v>-3.1</v>
+      </c>
+      <c r="N10">
+        <v>6.1009099999999997E-2</v>
+      </c>
+      <c r="P10">
+        <v>-3.1</v>
+      </c>
+      <c r="S10">
+        <v>9.7504900000000005E-2</v>
+      </c>
+      <c r="U10">
+        <v>-3.1</v>
+      </c>
+      <c r="X10">
+        <v>4.6102499999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>-3</v>
+      </c>
+      <c r="I11">
+        <v>-8.4788199999999998E-3</v>
+      </c>
+      <c r="K11">
+        <v>-3</v>
+      </c>
+      <c r="N11">
+        <v>2.1255400000000001E-2</v>
+      </c>
+      <c r="P11">
+        <v>-3</v>
+      </c>
+      <c r="S11">
+        <v>4.5755700000000003E-2</v>
+      </c>
+      <c r="U11">
+        <v>-3</v>
+      </c>
+      <c r="X11">
+        <v>1.8222800000000001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>-2.9</v>
+      </c>
+      <c r="I12">
+        <v>-6.2333300000000001E-2</v>
+      </c>
+      <c r="K12">
+        <v>-2.9</v>
+      </c>
+      <c r="N12">
+        <v>-1.6234100000000001E-2</v>
+      </c>
+      <c r="P12">
+        <v>-2.9</v>
+      </c>
+      <c r="S12">
+        <v>-5.06472E-3</v>
+      </c>
+      <c r="U12">
+        <v>-2.9</v>
+      </c>
+      <c r="X12">
+        <v>-9.6780500000000005E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>-2.8</v>
+      </c>
+      <c r="I13">
+        <v>-0.11428199999999999</v>
+      </c>
+      <c r="K13">
+        <v>-2.8</v>
+      </c>
+      <c r="N13">
+        <v>-5.1249000000000003E-2</v>
+      </c>
+      <c r="P13">
+        <v>-2.8</v>
+      </c>
+      <c r="S13">
+        <v>-5.4940299999999997E-2</v>
+      </c>
+      <c r="U13">
+        <v>-2.8</v>
+      </c>
+      <c r="X13">
+        <v>-3.8015899999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>-2.7</v>
+      </c>
+      <c r="I14">
+        <v>-0.16416700000000001</v>
+      </c>
+      <c r="K14">
+        <v>-2.7</v>
+      </c>
+      <c r="N14">
+        <v>-8.35785E-2</v>
+      </c>
+      <c r="P14">
+        <v>-2.7</v>
+      </c>
+      <c r="S14">
+        <v>-0.103855</v>
+      </c>
+      <c r="U14">
+        <v>-2.7</v>
+      </c>
+      <c r="X14">
+        <v>-6.7206799999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>-2.6</v>
+      </c>
+      <c r="I15">
+        <v>-0.21182799999999999</v>
+      </c>
+      <c r="K15">
+        <v>-2.6</v>
+      </c>
+      <c r="N15">
+        <v>-0.113012</v>
+      </c>
+      <c r="P15">
+        <v>-2.6</v>
+      </c>
+      <c r="S15">
+        <v>-0.15179400000000001</v>
+      </c>
+      <c r="U15">
+        <v>-2.6</v>
+      </c>
+      <c r="X15">
+        <v>-9.7666600000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>-2.5</v>
+      </c>
+      <c r="I16">
+        <v>-0.25710699999999997</v>
+      </c>
+      <c r="K16">
+        <v>-2.5</v>
+      </c>
+      <c r="N16">
+        <v>-0.13933899999999999</v>
+      </c>
+      <c r="P16">
+        <v>-2.5</v>
+      </c>
+      <c r="S16">
+        <v>-0.19874</v>
+      </c>
+      <c r="U16">
+        <v>-2.5</v>
+      </c>
+      <c r="X16">
+        <v>-0.12981100000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>-2.4</v>
+      </c>
+      <c r="I17">
+        <v>-0.299844</v>
+      </c>
+      <c r="K17">
+        <v>-2.4</v>
+      </c>
+      <c r="N17">
+        <v>-0.16234899999999999</v>
+      </c>
+      <c r="P17">
+        <v>-2.4</v>
+      </c>
+      <c r="S17">
+        <v>-0.24467700000000001</v>
+      </c>
+      <c r="U17">
+        <v>-2.4</v>
+      </c>
+      <c r="X17">
+        <v>-0.16405700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I18">
+        <v>-0.33988099999999999</v>
+      </c>
+      <c r="K18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="N18">
+        <v>-0.18183099999999999</v>
+      </c>
+      <c r="P18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="S18">
+        <v>-0.28959000000000001</v>
+      </c>
+      <c r="U18">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="X18">
+        <v>-0.200819</v>
+      </c>
+    </row>
+    <row r="19" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="I19">
+        <v>-0.37706000000000001</v>
+      </c>
+      <c r="K19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="N19">
+        <v>-0.197574</v>
+      </c>
+      <c r="P19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="S19">
+        <v>-0.33346300000000001</v>
+      </c>
+      <c r="U19">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="X19">
+        <v>-0.24051400000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>-2.1</v>
+      </c>
+      <c r="I20">
+        <v>-0.41121999999999997</v>
+      </c>
+      <c r="K20">
+        <v>-2.1</v>
+      </c>
+      <c r="N20">
+        <v>-0.209368</v>
+      </c>
+      <c r="P20">
+        <v>-2.1</v>
+      </c>
+      <c r="S20">
+        <v>-0.37628</v>
+      </c>
+      <c r="U20">
+        <v>-2.1</v>
+      </c>
+      <c r="X20">
+        <v>-0.283557</v>
+      </c>
+    </row>
+    <row r="21" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>-2</v>
+      </c>
+      <c r="I21">
+        <v>-0.44220300000000001</v>
+      </c>
+      <c r="K21">
+        <v>-2</v>
+      </c>
+      <c r="N21">
+        <v>-0.217002</v>
+      </c>
+      <c r="P21">
+        <v>-2</v>
+      </c>
+      <c r="S21">
+        <v>-0.41802400000000001</v>
+      </c>
+      <c r="U21">
+        <v>-2</v>
+      </c>
+      <c r="X21">
+        <v>-0.33036500000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>-1.9</v>
+      </c>
+      <c r="I22">
+        <v>-0.46887000000000001</v>
+      </c>
+      <c r="K22">
+        <v>-1.9</v>
+      </c>
+      <c r="N22">
+        <v>-0.22169800000000001</v>
+      </c>
+      <c r="P22">
+        <v>-1.9</v>
+      </c>
+      <c r="S22">
+        <v>-0.45649400000000001</v>
+      </c>
+      <c r="U22">
+        <v>-1.9</v>
+      </c>
+      <c r="X22">
+        <v>-0.378585</v>
+      </c>
+    </row>
+    <row r="23" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>-1.8</v>
+      </c>
+      <c r="I23">
+        <v>-0.49018</v>
+      </c>
+      <c r="K23">
+        <v>-1.8</v>
+      </c>
+      <c r="N23">
+        <v>-0.22470599999999999</v>
+      </c>
+      <c r="P23">
+        <v>-1.8</v>
+      </c>
+      <c r="S23">
+        <v>-0.489429</v>
+      </c>
+      <c r="U23">
+        <v>-1.8</v>
+      </c>
+      <c r="X23">
+        <v>-0.42513299999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>-1.7</v>
+      </c>
+      <c r="I24">
+        <v>-0.50612100000000004</v>
+      </c>
+      <c r="K24">
+        <v>-1.7</v>
+      </c>
+      <c r="N24">
+        <v>-0.225857</v>
+      </c>
+      <c r="P24">
+        <v>-1.7</v>
+      </c>
+      <c r="S24">
+        <v>-0.51672499999999999</v>
+      </c>
+      <c r="U24">
+        <v>-1.7</v>
+      </c>
+      <c r="X24">
+        <v>-0.46933000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>-1.6</v>
+      </c>
+      <c r="I25">
+        <v>-0.51668099999999995</v>
+      </c>
+      <c r="K25">
+        <v>-1.6</v>
+      </c>
+      <c r="N25">
+        <v>-0.22498099999999999</v>
+      </c>
+      <c r="P25">
+        <v>-1.6</v>
+      </c>
+      <c r="S25">
+        <v>-0.53827999999999998</v>
+      </c>
+      <c r="U25">
+        <v>-1.6</v>
+      </c>
+      <c r="X25">
+        <v>-0.51049599999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>-1.5</v>
+      </c>
+      <c r="I26">
+        <v>-0.52184900000000001</v>
+      </c>
+      <c r="K26">
+        <v>-1.5</v>
+      </c>
+      <c r="N26">
+        <v>-0.22191</v>
+      </c>
+      <c r="P26">
+        <v>-1.5</v>
+      </c>
+      <c r="S26">
+        <v>-0.55398899999999995</v>
+      </c>
+      <c r="U26">
+        <v>-1.5</v>
+      </c>
+      <c r="X26">
+        <v>-0.54795300000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>-1.4</v>
+      </c>
+      <c r="I27">
+        <v>-0.52161299999999999</v>
+      </c>
+      <c r="K27">
+        <v>-1.4</v>
+      </c>
+      <c r="N27">
+        <v>-0.216474</v>
+      </c>
+      <c r="P27">
+        <v>-1.4</v>
+      </c>
+      <c r="S27">
+        <v>-0.56374999999999997</v>
+      </c>
+      <c r="U27">
+        <v>-1.4</v>
+      </c>
+      <c r="X27">
+        <v>-0.58101999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>-1.3</v>
+      </c>
+      <c r="I28">
+        <v>-0.515961</v>
+      </c>
+      <c r="K28">
+        <v>-1.3</v>
+      </c>
+      <c r="N28">
+        <v>-0.20850399999999999</v>
+      </c>
+      <c r="P28">
+        <v>-1.3</v>
+      </c>
+      <c r="S28">
+        <v>-0.56745900000000005</v>
+      </c>
+      <c r="U28">
+        <v>-1.3</v>
+      </c>
+      <c r="X28">
+        <v>-0.60901899999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>-1.2</v>
+      </c>
+      <c r="I29">
+        <v>-0.50488299999999997</v>
+      </c>
+      <c r="K29">
+        <v>-1.2</v>
+      </c>
+      <c r="N29">
+        <v>-0.19783200000000001</v>
+      </c>
+      <c r="P29">
+        <v>-1.2</v>
+      </c>
+      <c r="S29">
+        <v>-0.56501400000000002</v>
+      </c>
+      <c r="U29">
+        <v>-1.2</v>
+      </c>
+      <c r="X29">
+        <v>-0.63126899999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I30">
+        <v>-0.48836600000000002</v>
+      </c>
+      <c r="K30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.18428900000000001</v>
+      </c>
+      <c r="P30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="S30">
+        <v>-0.556311</v>
+      </c>
+      <c r="U30">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="X30">
+        <v>-0.647092</v>
+      </c>
+    </row>
+    <row r="31" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>-0.46639799999999998</v>
+      </c>
+      <c r="K31">
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <v>-0.16770499999999999</v>
+      </c>
+      <c r="P31">
+        <v>-1</v>
+      </c>
+      <c r="S31">
+        <v>-0.541246</v>
+      </c>
+      <c r="U31">
+        <v>-1</v>
+      </c>
+      <c r="X31">
+        <v>-0.65580799999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>-0.9</v>
+      </c>
+      <c r="I32">
+        <v>-0.438969</v>
+      </c>
+      <c r="K32">
+        <v>-0.9</v>
+      </c>
+      <c r="N32">
+        <v>-0.14791099999999999</v>
+      </c>
+      <c r="P32">
+        <v>-0.9</v>
+      </c>
+      <c r="S32">
+        <v>-0.51971800000000001</v>
+      </c>
+      <c r="U32">
+        <v>-0.9</v>
+      </c>
+      <c r="X32">
+        <v>-0.65673800000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>-0.8</v>
+      </c>
+      <c r="I33">
+        <v>-0.40606500000000001</v>
+      </c>
+      <c r="K33">
+        <v>-0.8</v>
+      </c>
+      <c r="N33">
+        <v>-0.124738</v>
+      </c>
+      <c r="P33">
+        <v>-0.8</v>
+      </c>
+      <c r="S33">
+        <v>-0.49162099999999997</v>
+      </c>
+      <c r="U33">
+        <v>-0.8</v>
+      </c>
+      <c r="X33">
+        <v>-0.64920199999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>-0.7</v>
+      </c>
+      <c r="I34">
+        <v>-0.36767699999999998</v>
+      </c>
+      <c r="K34">
+        <v>-0.7</v>
+      </c>
+      <c r="N34">
+        <v>-9.8017699999999999E-2</v>
+      </c>
+      <c r="P34">
+        <v>-0.7</v>
+      </c>
+      <c r="S34">
+        <v>-0.45685399999999998</v>
+      </c>
+      <c r="U34">
+        <v>-0.7</v>
+      </c>
+      <c r="X34">
+        <v>-0.632521</v>
+      </c>
+    </row>
+    <row r="35" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>-0.6</v>
+      </c>
+      <c r="I35">
+        <v>-0.32379200000000002</v>
+      </c>
+      <c r="K35">
+        <v>-0.6</v>
+      </c>
+      <c r="N35">
+        <v>-6.7580699999999994E-2</v>
+      </c>
+      <c r="P35">
+        <v>-0.6</v>
+      </c>
+      <c r="S35">
+        <v>-0.41531299999999999</v>
+      </c>
+      <c r="U35">
+        <v>-0.6</v>
+      </c>
+      <c r="X35">
+        <v>-0.60601499999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>-0.5</v>
+      </c>
+      <c r="I36">
+        <v>-0.27439799999999998</v>
+      </c>
+      <c r="K36">
+        <v>-0.5</v>
+      </c>
+      <c r="N36">
+        <v>-3.3257799999999997E-2</v>
+      </c>
+      <c r="P36">
+        <v>-0.5</v>
+      </c>
+      <c r="S36">
+        <v>-0.366894</v>
+      </c>
+      <c r="U36">
+        <v>-0.5</v>
+      </c>
+      <c r="X36">
+        <v>-0.56900499999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>-0.4</v>
+      </c>
+      <c r="I37">
+        <v>-0.21948400000000001</v>
+      </c>
+      <c r="K37">
+        <v>-0.4</v>
+      </c>
+      <c r="N37">
+        <v>5.1198700000000003E-3</v>
+      </c>
+      <c r="P37">
+        <v>-0.4</v>
+      </c>
+      <c r="S37">
+        <v>-0.31149500000000002</v>
+      </c>
+      <c r="U37">
+        <v>-0.4</v>
+      </c>
+      <c r="X37">
+        <v>-0.52081200000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>-0.3</v>
+      </c>
+      <c r="I38">
+        <v>-0.15903800000000001</v>
+      </c>
+      <c r="K38">
+        <v>-0.3</v>
+      </c>
+      <c r="N38">
+        <v>4.7721399999999997E-2</v>
+      </c>
+      <c r="P38">
+        <v>-0.3</v>
+      </c>
+      <c r="S38">
+        <v>-0.24901200000000001</v>
+      </c>
+      <c r="U38">
+        <v>-0.3</v>
+      </c>
+      <c r="X38">
+        <v>-0.460756</v>
+      </c>
+    </row>
+    <row r="39" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>-0.2</v>
+      </c>
+      <c r="I39">
+        <v>-9.3049400000000004E-2</v>
+      </c>
+      <c r="K39">
+        <v>-0.2</v>
+      </c>
+      <c r="N39">
+        <v>9.4715800000000003E-2</v>
+      </c>
+      <c r="P39">
+        <v>-0.2</v>
+      </c>
+      <c r="S39">
+        <v>-0.179342</v>
+      </c>
+      <c r="U39">
+        <v>-0.2</v>
+      </c>
+      <c r="X39">
+        <v>-0.388158</v>
+      </c>
+    </row>
+    <row r="40" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>-0.1</v>
+      </c>
+      <c r="I40">
+        <v>-2.1505400000000001E-2</v>
+      </c>
+      <c r="K40">
+        <v>-0.1</v>
+      </c>
+      <c r="N40">
+        <v>0.14627200000000001</v>
+      </c>
+      <c r="P40">
+        <v>-0.1</v>
+      </c>
+      <c r="S40">
+        <v>-0.102382</v>
+      </c>
+      <c r="U40">
+        <v>-0.1</v>
+      </c>
+      <c r="X40">
+        <v>-0.302338</v>
+      </c>
+    </row>
+    <row r="41" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>2.4147399999999999E-15</v>
+      </c>
+      <c r="I41">
+        <v>5.56052E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2.4147399999999999E-15</v>
+      </c>
+      <c r="N41">
+        <v>0.20255899999999999</v>
+      </c>
+      <c r="P41" s="1">
+        <v>2.4147399999999999E-15</v>
+      </c>
+      <c r="S41">
+        <v>-1.8028200000000001E-2</v>
+      </c>
+      <c r="U41" s="1">
+        <v>2.4147399999999999E-15</v>
+      </c>
+      <c r="X41">
+        <v>-0.20261699999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="I42">
+        <v>0.13486400000000001</v>
+      </c>
+      <c r="K42">
+        <v>0.1</v>
+      </c>
+      <c r="N42">
+        <v>0.26149099999999997</v>
+      </c>
+      <c r="P42">
+        <v>0.1</v>
+      </c>
+      <c r="S42">
+        <v>6.9184200000000001E-2</v>
+      </c>
+      <c r="U42">
+        <v>0.1</v>
+      </c>
+      <c r="X42">
+        <v>-9.7035999999999997E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>0.2</v>
+      </c>
+      <c r="I43">
+        <v>0.21252599999999999</v>
+      </c>
+      <c r="K43">
+        <v>0.2</v>
+      </c>
+      <c r="N43">
+        <v>0.32050499999999998</v>
+      </c>
+      <c r="P43">
+        <v>0.2</v>
+      </c>
+      <c r="S43">
+        <v>0.154339</v>
+      </c>
+      <c r="U43">
+        <v>0.2</v>
+      </c>
+      <c r="X43">
+        <v>5.5972699999999997E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>0.3</v>
+      </c>
+      <c r="I44">
+        <v>0.28811599999999998</v>
+      </c>
+      <c r="K44">
+        <v>0.3</v>
+      </c>
+      <c r="N44">
+        <v>0.37905899999999998</v>
+      </c>
+      <c r="P44">
+        <v>0.3</v>
+      </c>
+      <c r="S44">
+        <v>0.23696600000000001</v>
+      </c>
+      <c r="U44">
+        <v>0.3</v>
+      </c>
+      <c r="X44">
+        <v>0.104813</v>
+      </c>
+    </row>
+    <row r="45" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>0.4</v>
+      </c>
+      <c r="I45">
+        <v>0.36115599999999998</v>
+      </c>
+      <c r="K45">
+        <v>0.4</v>
+      </c>
+      <c r="N45">
+        <v>0.43660700000000002</v>
+      </c>
+      <c r="P45">
+        <v>0.4</v>
+      </c>
+      <c r="S45">
+        <v>0.31659700000000002</v>
+      </c>
+      <c r="U45">
+        <v>0.4</v>
+      </c>
+      <c r="X45">
+        <v>0.20014000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>0.5</v>
+      </c>
+      <c r="I46">
+        <v>0.43116900000000002</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="N46">
+        <v>0.49260700000000002</v>
+      </c>
+      <c r="P46">
+        <v>0.5</v>
+      </c>
+      <c r="S46">
+        <v>0.39276100000000003</v>
+      </c>
+      <c r="U46">
+        <v>0.5</v>
+      </c>
+      <c r="X46">
+        <v>0.29110900000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>0.6</v>
+      </c>
+      <c r="I47">
+        <v>0.49768000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.6</v>
+      </c>
+      <c r="N47">
+        <v>0.54651499999999997</v>
+      </c>
+      <c r="P47">
+        <v>0.6</v>
+      </c>
+      <c r="S47">
+        <v>0.46498899999999999</v>
+      </c>
+      <c r="U47">
+        <v>0.6</v>
+      </c>
+      <c r="X47">
+        <v>0.377249</v>
+      </c>
+    </row>
+    <row r="48" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>0.7</v>
+      </c>
+      <c r="I48">
+        <v>0.56021200000000004</v>
+      </c>
+      <c r="K48">
+        <v>0.7</v>
+      </c>
+      <c r="N48">
+        <v>0.59778799999999999</v>
+      </c>
+      <c r="P48">
+        <v>0.7</v>
+      </c>
+      <c r="S48">
+        <v>0.53281199999999995</v>
+      </c>
+      <c r="U48">
+        <v>0.7</v>
+      </c>
+      <c r="X48">
+        <v>0.45809100000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>0.8</v>
+      </c>
+      <c r="I49">
+        <v>0.61828700000000003</v>
+      </c>
+      <c r="K49">
+        <v>0.8</v>
+      </c>
+      <c r="N49">
+        <v>0.64588100000000004</v>
+      </c>
+      <c r="P49">
+        <v>0.8</v>
+      </c>
+      <c r="S49">
+        <v>0.59575999999999996</v>
+      </c>
+      <c r="U49">
+        <v>0.8</v>
+      </c>
+      <c r="X49">
+        <v>0.53316399999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>0.9</v>
+      </c>
+      <c r="I50">
+        <v>0.67142900000000005</v>
+      </c>
+      <c r="K50">
+        <v>0.9</v>
+      </c>
+      <c r="N50">
+        <v>0.69025099999999995</v>
+      </c>
+      <c r="P50">
+        <v>0.9</v>
+      </c>
+      <c r="S50">
+        <v>0.65336300000000003</v>
+      </c>
+      <c r="U50">
+        <v>0.9</v>
+      </c>
+      <c r="X50">
+        <v>0.601997</v>
+      </c>
+    </row>
+    <row r="51" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0.71916199999999997</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0.73035499999999998</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="S51">
+        <v>0.70515300000000003</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0.66412099999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I52">
+        <v>0.76100900000000005</v>
+      </c>
+      <c r="K52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N52">
+        <v>0.765648</v>
+      </c>
+      <c r="P52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S52">
+        <v>0.75065899999999997</v>
+      </c>
+      <c r="U52">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X52">
+        <v>0.71906499999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>1.2</v>
+      </c>
+      <c r="I53">
+        <v>0.79649300000000001</v>
+      </c>
+      <c r="K53">
+        <v>1.2</v>
+      </c>
+      <c r="N53">
+        <v>0.79558799999999996</v>
+      </c>
+      <c r="P53">
+        <v>1.2</v>
+      </c>
+      <c r="S53">
+        <v>0.789412</v>
+      </c>
+      <c r="U53">
+        <v>1.2</v>
+      </c>
+      <c r="X53">
+        <v>0.76635900000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>1.3</v>
+      </c>
+      <c r="I54">
+        <v>0.82513700000000001</v>
+      </c>
+      <c r="K54">
+        <v>1.3</v>
+      </c>
+      <c r="N54">
+        <v>0.81962999999999997</v>
+      </c>
+      <c r="P54">
+        <v>1.3</v>
+      </c>
+      <c r="S54">
+        <v>0.82094299999999998</v>
+      </c>
+      <c r="U54">
+        <v>1.3</v>
+      </c>
+      <c r="X54">
+        <v>0.80553300000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1.4</v>
+      </c>
+      <c r="I55">
+        <v>0.84646600000000005</v>
+      </c>
+      <c r="K55">
+        <v>1.4</v>
+      </c>
+      <c r="N55">
+        <v>0.83723099999999995</v>
+      </c>
+      <c r="P55">
+        <v>1.4</v>
+      </c>
+      <c r="S55">
+        <v>0.844781</v>
+      </c>
+      <c r="U55">
+        <v>1.4</v>
+      </c>
+      <c r="X55">
+        <v>0.83611599999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>1.5</v>
+      </c>
+      <c r="I56">
+        <v>0.86000200000000004</v>
+      </c>
+      <c r="K56">
+        <v>1.5</v>
+      </c>
+      <c r="N56">
+        <v>0.84784700000000002</v>
+      </c>
+      <c r="P56">
+        <v>1.5</v>
+      </c>
+      <c r="S56">
+        <v>0.86045899999999997</v>
+      </c>
+      <c r="U56">
+        <v>1.5</v>
+      </c>
+      <c r="X56">
+        <v>0.85763900000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>1.6</v>
+      </c>
+      <c r="I57">
+        <v>0.86526800000000004</v>
+      </c>
+      <c r="K57">
+        <v>1.6</v>
+      </c>
+      <c r="N57">
+        <v>0.85093399999999997</v>
+      </c>
+      <c r="P57">
+        <v>1.6</v>
+      </c>
+      <c r="S57">
+        <v>0.86750499999999997</v>
+      </c>
+      <c r="U57">
+        <v>1.6</v>
+      </c>
+      <c r="X57">
+        <v>0.86963100000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>1.7</v>
+      </c>
+      <c r="I58">
+        <v>0.861788</v>
+      </c>
+      <c r="K58">
+        <v>1.7</v>
+      </c>
+      <c r="N58">
+        <v>0.84594999999999998</v>
+      </c>
+      <c r="P58">
+        <v>1.7</v>
+      </c>
+      <c r="S58">
+        <v>0.86545000000000005</v>
+      </c>
+      <c r="U58">
+        <v>1.7</v>
+      </c>
+      <c r="X58">
+        <v>0.87162200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>1.8</v>
+      </c>
+      <c r="I59">
+        <v>0.84908600000000001</v>
+      </c>
+      <c r="K59">
+        <v>1.8</v>
+      </c>
+      <c r="N59">
+        <v>0.83234900000000001</v>
+      </c>
+      <c r="P59">
+        <v>1.8</v>
+      </c>
+      <c r="S59">
+        <v>0.85382499999999995</v>
+      </c>
+      <c r="U59">
+        <v>1.8</v>
+      </c>
+      <c r="X59">
+        <v>0.86314100000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>1.9</v>
+      </c>
+      <c r="I60">
+        <v>0.82668399999999997</v>
+      </c>
+      <c r="K60">
+        <v>1.9</v>
+      </c>
+      <c r="N60">
+        <v>0.809589</v>
+      </c>
+      <c r="P60">
+        <v>1.9</v>
+      </c>
+      <c r="S60">
+        <v>0.83216100000000004</v>
+      </c>
+      <c r="U60">
+        <v>1.9</v>
+      </c>
+      <c r="X60">
+        <v>0.843719</v>
+      </c>
+    </row>
+    <row r="61" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="I61">
+        <v>0.79410599999999998</v>
+      </c>
+      <c r="K61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>0.77712700000000001</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>0.79998800000000003</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <v>0.81288499999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>2.1</v>
+      </c>
+      <c r="I62">
+        <v>0.75136800000000004</v>
+      </c>
+      <c r="K62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>0.73479700000000003</v>
+      </c>
+      <c r="P62">
+        <v>2.1</v>
+      </c>
+      <c r="S62">
+        <v>0.75743499999999997</v>
+      </c>
+      <c r="U62">
+        <v>2.1</v>
+      </c>
+      <c r="X62">
+        <v>0.77106799999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I63">
+        <v>0.69918499999999995</v>
+      </c>
+      <c r="K63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N63">
+        <v>0.68317399999999995</v>
+      </c>
+      <c r="P63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S63">
+        <v>0.70533000000000001</v>
+      </c>
+      <c r="U63">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X63">
+        <v>0.71940999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.63812800000000003</v>
+      </c>
+      <c r="K64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N64">
+        <v>0.62281699999999995</v>
+      </c>
+      <c r="P64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S64">
+        <v>0.64425100000000002</v>
+      </c>
+      <c r="U64">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="X64">
+        <v>0.65851000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>2.4</v>
+      </c>
+      <c r="I65">
+        <v>0.56876800000000005</v>
+      </c>
+      <c r="K65">
+        <v>2.4</v>
+      </c>
+      <c r="N65">
+        <v>0.554284</v>
+      </c>
+      <c r="P65">
+        <v>2.4</v>
+      </c>
+      <c r="S65">
+        <v>0.57477800000000001</v>
+      </c>
+      <c r="U65">
+        <v>2.4</v>
+      </c>
+      <c r="X65">
+        <v>0.58896700000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>2.5</v>
+      </c>
+      <c r="I66">
+        <v>0.49167499999999997</v>
+      </c>
+      <c r="K66">
+        <v>2.5</v>
+      </c>
+      <c r="N66">
+        <v>0.47813699999999998</v>
+      </c>
+      <c r="P66">
+        <v>2.5</v>
+      </c>
+      <c r="S66">
+        <v>0.49748799999999999</v>
+      </c>
+      <c r="U66">
+        <v>2.5</v>
+      </c>
+      <c r="X66">
+        <v>0.51137900000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2.6</v>
+      </c>
+      <c r="I67">
+        <v>0.40742099999999998</v>
+      </c>
+      <c r="K67">
+        <v>2.6</v>
+      </c>
+      <c r="N67">
+        <v>0.39493499999999998</v>
+      </c>
+      <c r="P67">
+        <v>2.6</v>
+      </c>
+      <c r="S67">
+        <v>0.41296100000000002</v>
+      </c>
+      <c r="U67">
+        <v>2.6</v>
+      </c>
+      <c r="X67">
+        <v>0.426344</v>
+      </c>
+    </row>
+    <row r="68" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>2.7</v>
+      </c>
+      <c r="I68">
+        <v>0.31657600000000002</v>
+      </c>
+      <c r="K68">
+        <v>2.7</v>
+      </c>
+      <c r="N68">
+        <v>0.30523600000000001</v>
+      </c>
+      <c r="P68">
+        <v>2.7</v>
+      </c>
+      <c r="S68">
+        <v>0.321774</v>
+      </c>
+      <c r="U68">
+        <v>2.7</v>
+      </c>
+      <c r="X68">
+        <v>0.33446199999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>2.8</v>
+      </c>
+      <c r="I69">
+        <v>0.21971199999999999</v>
+      </c>
+      <c r="K69">
+        <v>2.8</v>
+      </c>
+      <c r="N69">
+        <v>0.20960200000000001</v>
+      </c>
+      <c r="P69">
+        <v>2.8</v>
+      </c>
+      <c r="S69">
+        <v>0.22450500000000001</v>
+      </c>
+      <c r="U69">
+        <v>2.8</v>
+      </c>
+      <c r="X69">
+        <v>0.23633199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>2.9</v>
+      </c>
+      <c r="I70">
+        <v>0.117398</v>
+      </c>
+      <c r="K70">
+        <v>2.9</v>
+      </c>
+      <c r="N70">
+        <v>0.10859199999999999</v>
+      </c>
+      <c r="P70">
+        <v>2.9</v>
+      </c>
+      <c r="S70">
+        <v>0.121735</v>
+      </c>
+      <c r="U70">
+        <v>2.9</v>
+      </c>
+      <c r="X70">
+        <v>0.132551</v>
+      </c>
+    </row>
+    <row r="71" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>3</v>
+      </c>
+      <c r="I71">
+        <v>1.02074E-2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="N71">
+        <v>2.7648500000000001E-3</v>
+      </c>
+      <c r="P71">
+        <v>3</v>
+      </c>
+      <c r="S71">
+        <v>1.40398E-2</v>
+      </c>
+      <c r="U71">
+        <v>3</v>
+      </c>
+      <c r="X71">
+        <v>2.37197E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>3.1</v>
+      </c>
+      <c r="I72">
+        <v>-0.10129000000000001</v>
+      </c>
+      <c r="K72">
+        <v>3.1</v>
+      </c>
+      <c r="N72">
+        <v>-0.107319</v>
+      </c>
+      <c r="P72">
+        <v>3.1</v>
+      </c>
+      <c r="S72">
+        <v>-9.8000699999999996E-2</v>
+      </c>
+      <c r="U72">
+        <v>3.1</v>
+      </c>
+      <c r="X72">
+        <v>-8.9564500000000005E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>3.2</v>
+      </c>
+      <c r="I73">
+        <v>-0.21652399999999999</v>
+      </c>
+      <c r="K73">
+        <v>3.2</v>
+      </c>
+      <c r="N73">
+        <v>-0.22109999999999999</v>
+      </c>
+      <c r="P73">
+        <v>3.2</v>
+      </c>
+      <c r="S73">
+        <v>-0.213808</v>
+      </c>
+      <c r="U73">
+        <v>3.2</v>
+      </c>
+      <c r="X73">
+        <v>-0.206702</v>
+      </c>
+    </row>
+    <row r="74" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>3.3</v>
+      </c>
+      <c r="I74">
+        <v>-0.33492300000000003</v>
+      </c>
+      <c r="K74">
+        <v>3.3</v>
+      </c>
+      <c r="N74">
+        <v>-0.33801900000000001</v>
+      </c>
+      <c r="P74">
+        <v>3.3</v>
+      </c>
+      <c r="S74">
+        <v>-0.33280500000000002</v>
+      </c>
+      <c r="U74">
+        <v>3.3</v>
+      </c>
+      <c r="X74">
+        <v>-0.32709500000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>3.4</v>
+      </c>
+      <c r="I75">
+        <v>-0.45591599999999999</v>
+      </c>
+      <c r="K75">
+        <v>3.4</v>
+      </c>
+      <c r="N75">
+        <v>-0.45751500000000001</v>
+      </c>
+      <c r="P75">
+        <v>3.4</v>
+      </c>
+      <c r="S75">
+        <v>-0.45441100000000001</v>
+      </c>
+      <c r="U75">
+        <v>3.4</v>
+      </c>
+      <c r="X75">
+        <v>-0.45014399999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>3.5</v>
+      </c>
+      <c r="I76">
+        <v>-0.578932</v>
+      </c>
+      <c r="K76">
+        <v>3.5</v>
+      </c>
+      <c r="N76">
+        <v>-0.57903000000000004</v>
+      </c>
+      <c r="P76">
+        <v>3.5</v>
+      </c>
+      <c r="S76">
+        <v>-0.57804999999999995</v>
+      </c>
+      <c r="U76">
+        <v>3.5</v>
+      </c>
+      <c r="X76">
+        <v>-0.57525099999999996</v>
+      </c>
+    </row>
+    <row r="77" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>3.6</v>
+      </c>
+      <c r="I77">
+        <v>-0.70340000000000003</v>
+      </c>
+      <c r="K77">
+        <v>3.6</v>
+      </c>
+      <c r="N77">
+        <v>-0.70200300000000004</v>
+      </c>
+      <c r="P77">
+        <v>3.6</v>
+      </c>
+      <c r="S77">
+        <v>-0.70314100000000002</v>
+      </c>
+      <c r="U77">
+        <v>3.6</v>
+      </c>
+      <c r="X77">
+        <v>-0.70181700000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>3.7</v>
+      </c>
+      <c r="I78">
+        <v>-0.82874999999999999</v>
+      </c>
+      <c r="K78">
+        <v>3.7</v>
+      </c>
+      <c r="N78">
+        <v>-0.82587500000000003</v>
+      </c>
+      <c r="P78">
+        <v>3.7</v>
+      </c>
+      <c r="S78">
+        <v>-0.82910799999999996</v>
+      </c>
+      <c r="U78">
+        <v>3.7</v>
+      </c>
+      <c r="X78">
+        <v>-0.82924299999999995</v>
+      </c>
+    </row>
+    <row r="79" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>3.8</v>
+      </c>
+      <c r="I79">
+        <v>-0.95440999999999998</v>
+      </c>
+      <c r="K79">
+        <v>3.8</v>
+      </c>
+      <c r="N79">
+        <v>-0.95008599999999999</v>
+      </c>
+      <c r="P79">
+        <v>3.8</v>
+      </c>
+      <c r="S79">
+        <v>-0.95537099999999997</v>
+      </c>
+      <c r="U79">
+        <v>3.8</v>
+      </c>
+      <c r="X79">
+        <v>-0.95692999999999995</v>
+      </c>
+    </row>
+    <row r="80" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>3.9</v>
+      </c>
+      <c r="I80">
+        <v>-1.0798099999999999</v>
+      </c>
+      <c r="K80">
+        <v>3.9</v>
+      </c>
+      <c r="N80">
+        <v>-1.0740799999999999</v>
+      </c>
+      <c r="P80">
+        <v>3.9</v>
+      </c>
+      <c r="S80">
+        <v>-1.08135</v>
+      </c>
+      <c r="U80">
+        <v>3.9</v>
+      </c>
+      <c r="X80">
+        <v>-1.0842799999999999</v>
       </c>
     </row>
   </sheetData>
